--- a/biology/Zoologie/Exetastes_postornata/Exetastes_postornata.xlsx
+++ b/biology/Zoologie/Exetastes_postornata/Exetastes_postornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Exetastes postornata est une espèce fossile de guêpes parasitoïdes de la sous-famille des Banchinae (famille des Ichneumonidae).
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Exetastes postornata est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype Am16, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection du muséum national d'histoire naturelle de Paris[note 1] et vient du gisement de gypse d'Aix-en-Provence dans les Bouches-du-Rhône[1],[3].
-Étymologie
-L'épithète spécifique postornata signifie en latin « le facteur est né ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Exetastes postornata est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
-« Insecte noirâtre à ailes transparentes. Tête transversale, courte ; yeux entiers, non échancrés ; antennes longues, atteignant le milieu de l'abdomen, filiformes, scape ovale. Thorax ovale, sur l'échantillon il est écrasé. Abdomen allongé, fusiforme, arrondi à l'extrémité, la partie apicale des segments médians est de coloration plus foncée ; pas de tarière, ♂. Pattes manquent. Ailes hyalines ; nervation bien conservée ; aréole en rhomboïde étiré vers l'apex ; nervure radiale issue un peu en avant du milieu du stigma ; cellule discoïdo-cubitale avec ramellus. »[1].
-Dimensions
-La longueur totale est de 11,5 mm[1].
-Affinités
-« L'aréole, assez large et rhomboïdale, range cet échantillon parmi les Branchides. Il est très voisin de Exetastes cinctipes Retz ; actuel, très répandu en Europe et en Asie. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am16, de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) faisait partie de la collection du muséum national d'histoire naturelle de Paris[note 1] et vient du gisement de gypse d'Aix-en-Provence dans les Bouches-du-Rhône,.
 </t>
         </is>
       </c>
@@ -580,12 +590,165 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique postornata signifie en latin « le facteur est né ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte noirâtre à ailes transparentes. Tête transversale, courte ; yeux entiers, non échancrés ; antennes longues, atteignant le milieu de l'abdomen, filiformes, scape ovale. Thorax ovale, sur l'échantillon il est écrasé. Abdomen allongé, fusiforme, arrondi à l'extrémité, la partie apicale des segments médians est de coloration plus foncée ; pas de tarière, ♂. Pattes manquent. Ailes hyalines ; nervation bien conservée ; aréole en rhomboïde étiré vers l'apex ; nervure radiale issue un peu en avant du milieu du stigma ; cellule discoïdo-cubitale avec ramellus. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 11,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« L'aréole, assez large et rhomboïdale, range cet échantillon parmi les Branchides. Il est très voisin de Exetastes cinctipes Retz ; actuel, très répandu en Europe et en Asie. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Exetastes_postornata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Les larves sont parasites des chenilles, de préférence des chenilles de Noctuelles. Les pupes sont détruites par certains Ophionides (Mesochorus mandibularis Thoms.) et des Chalcididae (C. Morley). »[1].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Les larves sont parasites des chenilles, de préférence des chenilles de Noctuelles. Les pupes sont détruites par certains Ophionides (Mesochorus mandibularis Thoms.) et des Chalcididae (C. Morley). ».
 </t>
         </is>
       </c>
